--- a/analysis/pre_gemini_data/participant270/hard.xlsx
+++ b/analysis/pre_gemini_data/participant270/hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,192 +422,188 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>assign2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>cond_body</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>cond_body2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>cond_body3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>cond_state</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>cond_state2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>cond_state3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>declaration</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>index2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>loop_body</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>loop_body2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>loop_body3</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>method2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>method3</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>method4</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>method5</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
@@ -682,63 +666,61 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
         <v>57</v>
       </c>
-      <c r="I3" t="n">
-        <v>65</v>
-      </c>
       <c r="J3" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K3" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L3" t="n">
         <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>44</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
         <v>22</v>
       </c>
       <c r="Q3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="W3" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="X3" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -747,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -757,13 +739,13 @@
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -792,63 +774,61 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="I4" t="n">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="J4" t="n">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="K4" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L4" t="n">
         <v>17</v>
       </c>
       <c r="M4" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>76</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
         <v>215</v>
       </c>
       <c r="Q4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="W4" t="n">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="X4" t="n">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="Y4" t="n">
         <v>1</v>
@@ -857,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="AA4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB4" t="n">
         <v>1</v>
@@ -867,13 +847,13 @@
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="AF4" t="n">
         <v>3</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
         <v>1</v>
@@ -902,63 +882,61 @@
         <v>183.51</v>
       </c>
       <c r="D5" t="n">
-        <v>6123.05</v>
+        <v>5672.69</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>9152.01</v>
+        <v>9001.870000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>12254.89</v>
+        <v>11653.9</v>
       </c>
       <c r="H5" t="n">
-        <v>83839.13</v>
+        <v>74744.07000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>69883.49000000001</v>
+        <v>65871.62</v>
       </c>
       <c r="J5" t="n">
-        <v>53106.9</v>
+        <v>49595.5</v>
       </c>
       <c r="K5" t="n">
-        <v>36437.35</v>
+        <v>35136.06</v>
       </c>
       <c r="L5" t="n">
         <v>5623.05</v>
       </c>
       <c r="M5" t="n">
-        <v>19462.17</v>
+        <v>17802.68</v>
       </c>
       <c r="N5" t="n">
-        <v>27536.28</v>
-      </c>
-      <c r="O5" t="n">
-        <v>850.91</v>
-      </c>
+        <v>26418.36</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
         <v>53951.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>8592.84</v>
+        <v>8258.809999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>11011.83</v>
+        <v>10744.86</v>
       </c>
       <c r="S5" t="n">
-        <v>5021.98</v>
+        <v>4571.62</v>
       </c>
       <c r="T5" t="n">
         <v>183.51</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>80569.13</v>
+        <v>72992.35000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>76498.34</v>
+        <v>72208.33</v>
       </c>
       <c r="X5" t="n">
-        <v>62867.89</v>
+        <v>59106.17</v>
       </c>
       <c r="Y5" t="n">
         <v>825.91</v>
@@ -967,7 +945,7 @@
         <v>2151.98</v>
       </c>
       <c r="AA5" t="n">
-        <v>12169.93</v>
+        <v>11835.9</v>
       </c>
       <c r="AB5" t="n">
         <v>900.73</v>
@@ -977,13 +955,13 @@
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>129238.01</v>
+        <v>90194.37</v>
       </c>
       <c r="AF5" t="n">
         <v>1409.94</v>
       </c>
       <c r="AG5" t="n">
-        <v>4354.6</v>
+        <v>4204.46</v>
       </c>
       <c r="AH5" t="n">
         <v>825.91</v>
@@ -1006,107 +984,105 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>1.45</v>
+        <v>2.19</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="H6" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="J6" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="L6" t="n">
         <v>2.17</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="I6" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.33</v>
-      </c>
       <c r="M6" t="n">
-        <v>4.61</v>
+        <v>6.89</v>
       </c>
       <c r="N6" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.2</v>
-      </c>
+        <v>10.22</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
         <v>33.03</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>3.19</v>
       </c>
       <c r="R6" t="n">
-        <v>2.61</v>
+        <v>4.16</v>
       </c>
       <c r="S6" t="n">
-        <v>1.19</v>
+        <v>1.77</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>19.1</v>
+        <v>28.23</v>
       </c>
       <c r="W6" t="n">
-        <v>18.13</v>
+        <v>27.93</v>
       </c>
       <c r="X6" t="n">
-        <v>14.9</v>
+        <v>22.86</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.51</v>
+        <v>0.83</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.88</v>
+        <v>4.58</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>30.63</v>
+        <v>34.88</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.03</v>
+        <v>1.63</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>1.36</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="7">
@@ -1122,63 +1098,61 @@
         <v>183.51</v>
       </c>
       <c r="D7" t="n">
-        <v>322.27</v>
+        <v>315.15</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>397.91</v>
+        <v>409.18</v>
       </c>
       <c r="G7" t="n">
-        <v>340.41</v>
+        <v>342.76</v>
       </c>
       <c r="H7" t="n">
-        <v>307.1</v>
+        <v>301.39</v>
       </c>
       <c r="I7" t="n">
-        <v>294.87</v>
+        <v>300.78</v>
       </c>
       <c r="J7" t="n">
-        <v>310.57</v>
+        <v>317.92</v>
       </c>
       <c r="K7" t="n">
-        <v>325.33</v>
+        <v>328.37</v>
       </c>
       <c r="L7" t="n">
         <v>330.77</v>
       </c>
       <c r="M7" t="n">
-        <v>374.27</v>
+        <v>395.62</v>
       </c>
       <c r="N7" t="n">
-        <v>362.32</v>
-      </c>
-      <c r="O7" t="n">
-        <v>425.45</v>
-      </c>
+        <v>366.92</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
         <v>250.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>505.46</v>
+        <v>516.1799999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>355.22</v>
+        <v>358.16</v>
       </c>
       <c r="S7" t="n">
-        <v>334.8</v>
+        <v>326.54</v>
       </c>
       <c r="T7" t="n">
         <v>183.51</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>306.35</v>
+        <v>300.38</v>
       </c>
       <c r="W7" t="n">
-        <v>297.66</v>
+        <v>303.4</v>
       </c>
       <c r="X7" t="n">
-        <v>309.69</v>
+        <v>316.08</v>
       </c>
       <c r="Y7" t="n">
         <v>825.91</v>
@@ -1187,7 +1161,7 @@
         <v>537.99</v>
       </c>
       <c r="AA7" t="n">
-        <v>434.64</v>
+        <v>438.37</v>
       </c>
       <c r="AB7" t="n">
         <v>900.73</v>
@@ -1197,13 +1171,13 @@
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>423.73</v>
+        <v>409.97</v>
       </c>
       <c r="AF7" t="n">
         <v>469.98</v>
       </c>
       <c r="AG7" t="n">
-        <v>435.46</v>
+        <v>467.16</v>
       </c>
       <c r="AH7" t="n">
         <v>825.91</v>
@@ -1262,9 +1236,7 @@
       <c r="N8" t="n">
         <v>467.14</v>
       </c>
-      <c r="O8" t="n">
-        <v>250.31</v>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
         <v>200.19</v>
       </c>
